--- a/storage/performances/performances.xlsx
+++ b/storage/performances/performances.xlsx
@@ -5,18 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irace\Desktop\performances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irace\Desktop\GitHub\Bathymetry\storage\performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3701C5A-76C9-4E52-9AE5-856A5305B949}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731AC127-335B-47BE-A62F-FB01129BE4AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4056" yWindow="1368" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
+    <workbookView xWindow="5796" yWindow="564" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
   </bookViews>
   <sheets>
-    <sheet name="med_no_56_56" sheetId="1" r:id="rId1"/>
-    <sheet name="gauss_no_101_101" sheetId="2" r:id="rId2"/>
-    <sheet name="gauss_ideal_50_10" sheetId="3" r:id="rId3"/>
-    <sheet name="gauss__n_50_10" sheetId="4" r:id="rId4"/>
+    <sheet name="plane_ideal_50_10" sheetId="4" r:id="rId1"/>
+    <sheet name="step_ideal_50_10" sheetId="5" r:id="rId2"/>
+    <sheet name="sin_ideal_50_10" sheetId="6" r:id="rId3"/>
+    <sheet name="gauss_ideal_50_10" sheetId="3" r:id="rId4"/>
+    <sheet name="plane_n_50_10" sheetId="7" r:id="rId5"/>
+    <sheet name="sin_n_50_10" sheetId="8" r:id="rId6"/>
+    <sheet name="gauss_n_50_10" sheetId="9" r:id="rId7"/>
+    <sheet name="gauss_o_50_10" sheetId="10" r:id="rId8"/>
+    <sheet name="gauss_no_50_10" sheetId="11" r:id="rId9"/>
+    <sheet name="gauss_no_25_10" sheetId="12" r:id="rId10"/>
+    <sheet name="gauss_no_50_50" sheetId="13" r:id="rId11"/>
+    <sheet name="gauss_no_101_101" sheetId="2" r:id="rId12"/>
+    <sheet name="med_no_56_56" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="10">
   <si>
     <t>Linear</t>
   </si>
@@ -103,10 +112,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -420,151 +430,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F27E09-CBFD-42F5-8EAF-0BCE1FC578B0}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC098A18-8AE4-49D9-B75B-B4EC47FE2C2A}">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0.113</v>
-      </c>
-      <c r="D1" s="1">
-        <v>0.10199999999999999</v>
+      <c r="B1" s="3">
+        <v>8.6E-27</v>
+      </c>
+      <c r="C1">
+        <v>1.27</v>
+      </c>
+      <c r="D1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>9.6389999999999993</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.23300000000000001</v>
+      <c r="B2" s="3">
+        <v>4.3E-28</v>
+      </c>
+      <c r="C2">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="D2">
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1E-3</v>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D3">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>47</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1E-3</v>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.02</v>
+      <c r="B5" s="3">
+        <v>8.6E-27</v>
+      </c>
+      <c r="C5">
+        <v>1.012</v>
+      </c>
+      <c r="D5">
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.7039999999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.56000000000000005</v>
+      <c r="B6" s="3">
+        <v>5.9000000000000003E-4</v>
+      </c>
+      <c r="C6">
+        <v>23.058</v>
+      </c>
+      <c r="D6">
+        <v>4.0869999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.4529999999999998</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.374</v>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.252</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20.981999999999999</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>7.3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>80.653999999999996</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13.102</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2.4000000000000001E-26</v>
+      </c>
+      <c r="C8">
+        <v>90.634</v>
+      </c>
+      <c r="D8">
+        <v>2.9420000000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5FF71B-CAB2-4C75-8883-CBBC2759B99C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC1A50-B703-41E1-87AB-A2B757D8D51B}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E56E1EE-52E7-4A21-A1BC-462BAF731CA6}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -682,7 +748,434 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F27E09-CBFD-42F5-8EAF-0BCE1FC578B0}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0.113</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9.6389999999999993</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.23300000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.7039999999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.4529999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20.981999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>80.653999999999996</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13.102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71E1AFE-489E-4CB8-AFD1-B27F4ADE0401}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C1">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C2">
+        <v>31.038</v>
+      </c>
+      <c r="D2">
+        <v>1.925</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="C3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="C6">
+        <v>22.141999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8.6E-3</v>
+      </c>
+      <c r="C7">
+        <v>29.757000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>89.209000000000003</v>
+      </c>
+      <c r="D8">
+        <v>6.6710000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="C9">
+        <v>75.957999999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410202CF-000E-486B-82AF-2CB5CEED8004}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C1">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="D1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>30.251999999999999</v>
+      </c>
+      <c r="D2">
+        <v>1.0229999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="C3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+      <c r="D4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D5">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="C6">
+        <v>22.372</v>
+      </c>
+      <c r="D6">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C7">
+        <v>29.084</v>
+      </c>
+      <c r="D7">
+        <v>2.7530000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <v>85.870999999999995</v>
+      </c>
+      <c r="D8">
+        <v>1.841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="C9">
+        <v>78.662000000000006</v>
+      </c>
+      <c r="D9">
+        <v>8.1289999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7340B20-EFF7-4C0C-8D3E-B8638D10D504}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -823,12 +1316,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC098A18-8AE4-49D9-B75B-B4EC47FE2C2A}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03443195-7E6E-4431-B7BF-724DC71A4CFA}">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,4 +1374,245 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377D30F-2803-4AA6-825A-50EEFC142A6F}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492413A3-93D2-4F31-B7A4-9DBEB753F62A}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0FF95-A830-4FBB-A9F9-99F5DEBEB268}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3C16F-7700-45FB-8AB0-D64DEECE3CA7}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/storage/performances/performances.xlsx
+++ b/storage/performances/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irace\Desktop\GitHub\Bathymetry\storage\performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731AC127-335B-47BE-A62F-FB01129BE4AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E440452-1B7D-4434-BA6C-3E998E930C29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5796" yWindow="564" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
+    <workbookView xWindow="6360" yWindow="1200" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="8" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
   </bookViews>
   <sheets>
     <sheet name="plane_ideal_50_10" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="med_no_56_56" sheetId="1" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
   <si>
     <t>Linear</t>
   </si>
@@ -112,11 +113,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -434,7 +436,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,14 +560,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5FF71B-CAB2-4C75-8883-CBBC2759B99C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -753,7 +801,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="A1:D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1318,57 +1366,138 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03443195-7E6E-4431-B7BF-724DC71A4CFA}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C1">
+        <v>1.012</v>
+      </c>
+      <c r="D1">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C2">
+        <v>33.438000000000002</v>
+      </c>
+      <c r="D2">
+        <v>4.9740000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>1.9E-3</v>
+      </c>
+      <c r="C6">
+        <v>22.367999999999999</v>
+      </c>
+      <c r="D6">
+        <v>1.4370000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1.4E-3</v>
+      </c>
+      <c r="C7">
+        <v>32.052</v>
+      </c>
+      <c r="D7">
+        <v>4.7789999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="C8">
+        <v>78.75</v>
+      </c>
+      <c r="D8">
+        <v>4.3310000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6.6399999999999999E-4</v>
+      </c>
+      <c r="C9">
+        <v>76.44</v>
+      </c>
+      <c r="D9">
+        <v>2.794</v>
       </c>
     </row>
   </sheetData>
@@ -1378,57 +1507,138 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A377D30F-2803-4AA6-825A-50EEFC142A6F}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C1">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="D1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C2">
+        <v>34.302999999999997</v>
+      </c>
+      <c r="D2">
+        <v>1.1339999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="C5">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2.3E-3</v>
+      </c>
+      <c r="C6">
+        <v>24.385000000000002</v>
+      </c>
+      <c r="D6">
+        <v>1.2030000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C7">
+        <v>29.146999999999998</v>
+      </c>
+      <c r="D7">
+        <v>2.7639999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>0.03</v>
+      </c>
+      <c r="C8">
+        <v>85.003</v>
+      </c>
+      <c r="D8">
+        <v>2.335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C9">
+        <v>76.456000000000003</v>
+      </c>
+      <c r="D9">
+        <v>2.0169999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1439,57 +1649,138 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492413A3-93D2-4F31-B7A4-9DBEB753F62A}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1.01</v>
+      </c>
+      <c r="C1">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>2.63</v>
+      </c>
+      <c r="C2">
+        <v>31.14</v>
+      </c>
+      <c r="D2">
+        <v>2.6190000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.95</v>
+      </c>
+      <c r="C3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2.7</v>
+      </c>
+      <c r="C4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1.01</v>
+      </c>
+      <c r="C5">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="D5">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.62</v>
+      </c>
+      <c r="C6">
+        <v>21.384</v>
+      </c>
+      <c r="D6">
+        <v>2.7869999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>29.16</v>
+      </c>
+      <c r="D7">
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1.7</v>
+      </c>
+      <c r="C8">
+        <v>84.805000000000007</v>
+      </c>
+      <c r="D8">
+        <v>1.409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.65</v>
+      </c>
+      <c r="C9">
+        <v>75.064999999999998</v>
+      </c>
+      <c r="D9">
+        <v>3.1360000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1499,57 +1790,138 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E0FF95-A830-4FBB-A9F9-99F5DEBEB268}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>3.5</v>
+      </c>
+      <c r="C1">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="D1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>6.8</v>
+      </c>
+      <c r="C2">
+        <v>40.414000000000001</v>
+      </c>
+      <c r="D2">
+        <v>3.9820000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>1.115</v>
+      </c>
+      <c r="D5">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2.4</v>
+      </c>
+      <c r="C6">
+        <v>24.733000000000001</v>
+      </c>
+      <c r="D6">
+        <v>2.0049999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>33.713000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.41799999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8">
+        <v>88.405000000000001</v>
+      </c>
+      <c r="D8">
+        <v>3.8260000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C9">
+        <v>86.771000000000001</v>
+      </c>
+      <c r="D9">
+        <v>7.6070000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1559,57 +1931,138 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3C16F-7700-45FB-8AB0-D64DEECE3CA7}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>3.5</v>
+      </c>
+      <c r="C1">
+        <v>1.038</v>
+      </c>
+      <c r="D1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>6.9</v>
+      </c>
+      <c r="C2">
+        <v>36.508000000000003</v>
+      </c>
+      <c r="D2">
+        <v>3.944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4.5</v>
+      </c>
+      <c r="C3">
+        <v>3.1E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>7.1</v>
+      </c>
+      <c r="C4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3.5</v>
+      </c>
+      <c r="C5">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="D5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2.4</v>
+      </c>
+      <c r="C6">
+        <v>22.367999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.67100000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.5</v>
+      </c>
+      <c r="C7">
+        <v>29.280999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>3.5</v>
+      </c>
+      <c r="C8" s="4">
+        <v>86.694999999999993</v>
+      </c>
+      <c r="D8">
+        <v>5.577</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C9">
+        <v>90.918999999999997</v>
+      </c>
+      <c r="D9">
+        <v>1.1830000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/storage/performances/performances.xlsx
+++ b/storage/performances/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irace\Desktop\GitHub\Bathymetry\storage\performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E440452-1B7D-4434-BA6C-3E998E930C29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079B284A-22B5-4830-88B8-548D8BF57FDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="1200" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="8" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
+    <workbookView xWindow="5760" yWindow="1140" windowWidth="17280" windowHeight="8964" firstSheet="10" activeTab="10" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
   </bookViews>
   <sheets>
     <sheet name="plane_ideal_50_10" sheetId="4" r:id="rId1"/>
@@ -26,9 +26,9 @@
     <sheet name="gauss_no_50_50" sheetId="13" r:id="rId11"/>
     <sheet name="gauss_no_101_101" sheetId="2" r:id="rId12"/>
     <sheet name="med_no_56_56" sheetId="1" r:id="rId13"/>
+    <sheet name="ramp_external" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="10">
   <si>
     <t>Linear</t>
   </si>
@@ -560,57 +560,138 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5FF71B-CAB2-4C75-8883-CBBC2759B99C}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>3.3</v>
+      </c>
+      <c r="C1">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D1">
+        <v>0.33600000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>6.4</v>
+      </c>
+      <c r="C2">
+        <v>18.280999999999999</v>
+      </c>
+      <c r="D2">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D3">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>6.5</v>
+      </c>
+      <c r="C4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3.3</v>
+      </c>
+      <c r="C5">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="D5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2.8</v>
+      </c>
+      <c r="C6">
+        <v>15.718</v>
+      </c>
+      <c r="D6">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.7</v>
+      </c>
+      <c r="C7">
+        <v>8.0259999999999998</v>
+      </c>
+      <c r="D7">
+        <v>1.417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>46.652000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.8049999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2.8</v>
+      </c>
+      <c r="C9">
+        <v>41.002000000000002</v>
+      </c>
+      <c r="D9">
+        <v>2.0009999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -620,57 +701,138 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC1A50-B703-41E1-87AB-A2B757D8D51B}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>1.7</v>
+      </c>
+      <c r="C1">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="D1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+      <c r="C2">
+        <v>170.17400000000001</v>
+      </c>
+      <c r="D2">
+        <v>4.1920000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D4">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1.7</v>
+      </c>
+      <c r="C5">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>2.1</v>
+      </c>
+      <c r="C6">
+        <v>96.518000000000001</v>
+      </c>
+      <c r="D6">
+        <v>2.0129999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2.1</v>
+      </c>
+      <c r="C7">
+        <v>31.655999999999999</v>
+      </c>
+      <c r="D7">
+        <v>3.0110000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C8">
+        <v>284.77600000000001</v>
+      </c>
+      <c r="D8">
+        <v>6.4189999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.9</v>
+      </c>
+      <c r="C9">
+        <v>651.00199999999995</v>
+      </c>
+      <c r="D9">
+        <v>3.0339999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -801,7 +963,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,6 +1100,69 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2BFC8-E83B-4950-ACE3-6FFD1946AC58}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0.1</v>
+      </c>
+      <c r="C1">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="D1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>1.383</v>
+      </c>
+      <c r="D3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1369,7 +1594,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,9 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3C16F-7700-45FB-8AB0-D64DEECE3CA7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/storage/performances/performances.xlsx
+++ b/storage/performances/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irace\Desktop\GitHub\Bathymetry\storage\performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079B284A-22B5-4830-88B8-548D8BF57FDA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ADCA69-328A-49CD-90D4-E09D8C0CB73B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1140" windowWidth="17280" windowHeight="8964" firstSheet="10" activeTab="10" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
+    <workbookView xWindow="4932" yWindow="1044" windowWidth="17280" windowHeight="8964" firstSheet="10" activeTab="13" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
   </bookViews>
   <sheets>
     <sheet name="plane_ideal_50_10" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="10">
   <si>
     <t>Linear</t>
   </si>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCC1A50-B703-41E1-87AB-A2B757D8D51B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1105,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2BFC8-E83B-4950-ACE3-6FFD1946AC58}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,36 +1129,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>1.383</v>
+      </c>
+      <c r="D2">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C3">
-        <v>1.383</v>
+        <v>401.03300000000002</v>
       </c>
       <c r="D3">
-        <v>3.3000000000000002E-2</v>
+        <v>12.316000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>68.557000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.16600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
         <v>7</v>
+      </c>
+      <c r="B5">
+        <v>296.60000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1204.201</v>
+      </c>
+      <c r="D5">
+        <v>9.7609999999999992</v>
       </c>
     </row>
   </sheetData>

--- a/storage/performances/performances.xlsx
+++ b/storage/performances/performances.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irace\Desktop\GitHub\Bathymetry\storage\performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ADCA69-328A-49CD-90D4-E09D8C0CB73B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8EBEE-4895-4403-A2AD-BCBE113B31CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="1044" windowWidth="17280" windowHeight="8964" firstSheet="10" activeTab="13" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
   </bookViews>
   <sheets>
     <sheet name="plane_ideal_50_10" sheetId="4" r:id="rId1"/>
@@ -24,9 +24,11 @@
     <sheet name="gauss_no_50_10" sheetId="11" r:id="rId9"/>
     <sheet name="gauss_no_25_10" sheetId="12" r:id="rId10"/>
     <sheet name="gauss_no_50_50" sheetId="13" r:id="rId11"/>
-    <sheet name="gauss_no_101_101" sheetId="2" r:id="rId12"/>
-    <sheet name="med_no_56_56" sheetId="1" r:id="rId13"/>
-    <sheet name="ramp_external" sheetId="14" r:id="rId14"/>
+    <sheet name="Foglio1" sheetId="15" r:id="rId12"/>
+    <sheet name="Grafico1" sheetId="16" r:id="rId13"/>
+    <sheet name="gauss_no_101_101" sheetId="2" r:id="rId14"/>
+    <sheet name="med_no_56_56" sheetId="1" r:id="rId15"/>
+    <sheet name="ramp_external" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="14">
   <si>
     <t>Linear</t>
   </si>
@@ -74,6 +76,18 @@
   </si>
   <si>
     <t>Shepard (p=4)</t>
+  </si>
+  <si>
+    <t>25x10</t>
+  </si>
+  <si>
+    <t>50x10</t>
+  </si>
+  <si>
+    <t>50x50</t>
+  </si>
+  <si>
+    <t>101x101</t>
   </si>
 </sst>
 </file>
@@ -134,6 +148,1722 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linear</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.0000">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RBF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.0000">
+                  <c:v>2.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nearest neighbour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.0000">
+                  <c:v>3.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Natural neighbour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.0000">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Biharmonic spline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.0000">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimum curvature</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.0000">
+                  <c:v>2.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Shepard (p=4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.0000">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kriging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50x10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101x101</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-5DE8-4635-80A2-0BC3F2608765}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="585046720"/>
+        <c:axId val="585048360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="585046720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Samples density</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585048360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585048360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MSE (m^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585046720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5DFBFD0B-025D-44F8-BB2B-476D2CF0879F}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2202FBA1-D3EB-423B-823A-1CA4EFBF7EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,7 +2293,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,7 +2434,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,11 +2571,187 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B4FF6C9-984C-4BD7-ABB8-7374FF13BC54}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.3</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>1.7</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6.4</v>
+      </c>
+      <c r="C3">
+        <v>6.9</v>
+      </c>
+      <c r="D3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4.5</v>
+      </c>
+      <c r="D4">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>6.5</v>
+      </c>
+      <c r="C5">
+        <v>7.1</v>
+      </c>
+      <c r="D5">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3.3</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>1.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.8</v>
+      </c>
+      <c r="C7">
+        <v>2.4</v>
+      </c>
+      <c r="D7">
+        <v>2.1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.7</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8">
+        <v>2.1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2.8</v>
+      </c>
+      <c r="C10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D10">
+        <v>1.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E56E1EE-52E7-4A21-A1BC-462BAF731CA6}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B1" sqref="B1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -958,7 +2864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F27E09-CBFD-42F5-8EAF-0BCE1FC578B0}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1103,11 +3009,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C2BFC8-E83B-4950-ACE3-6FFD1946AC58}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -2180,7 +4086,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F3C16F-7700-45FB-8AB0-D64DEECE3CA7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/storage/performances/performances.xlsx
+++ b/storage/performances/performances.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irace\Desktop\GitHub\Bathymetry\storage\performances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC8EBEE-4895-4403-A2AD-BCBE113B31CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEFB08-4F78-43D5-B009-843BC12F0C93}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="12" xr2:uid="{1557AEC7-75BD-4D57-8114-314B749767F6}"/>
   </bookViews>
   <sheets>
     <sheet name="plane_ideal_50_10" sheetId="4" r:id="rId1"/>
@@ -1826,7 +1826,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5DFBFD0B-025D-44F8-BB2B-476D2CF0879F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1837,7 +1837,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298112" cy="6070315"/>
+    <xdr:ext cx="9285111" cy="6053667"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafico 1">
